--- a/x.xlsx
+++ b/x.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://londonbusinessschool1000-my.sharepoint.com/personal/sunnyw_london_edu/Documents/courtcase/s3/runb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DE80259-CC16-4A54-A949-27FD42083D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{0DE80259-CC16-4A54-A949-27FD42083D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4970E68-5AC8-43D6-ACEB-99597E0ACC4D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1140" windowWidth="18960" windowHeight="9950" xr2:uid="{5C52E421-8850-400F-B9D0-509788EC78DE}"/>
+    <workbookView xWindow="64680" yWindow="4740" windowWidth="14400" windowHeight="8175" xr2:uid="{5C52E421-8850-400F-B9D0-509788EC78DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,121 +36,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
-  <si>
-    <t>原告圓剛科技</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCA%2c103%2c%e8%a1%8c%e5%b0%88%e6%9b%b4(%e4%b8%89)%2c4%2c20150210%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>原告中華電信</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCA%2c104%2c%e8%a1%8c%e5%95%86%e8%a8%b4%2c91%2c20151224%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>原告建準電機工業</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCA%2c105%2c%e8%a1%8c%e5%b0%88%e8%a8%b4%2c48%2c20170809%2c3&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCA%2c104%2c%e8%a1%8c%e5%b0%88%e8%a8%b4%2c46%2c20150924%2c3&amp;ot=in</t>
-  </si>
-  <si>
-    <t>原告走著瞧</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TNDV%2c98%2c%e5%a9%9a%2c36%2c20090422%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=HLDV%2c94%2c%e5%a9%9a%2c109%2c20050725%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=PCDV%2c92%2c%e8%a8%b4%2c1436%2c20031006%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>被告臺灣水泥</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=HLDM%2c89%2c%e9%99%84%e6%b0%91%2c131%2c20010533%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>被告統一企業</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=PCDV%2c101%2c%e9%87%8d%e6%b6%88%2c1%2c20131017%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>被告中國石油化學工業開發</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TNDV%2c97%2c%e9%87%8d%e5%9c%8b%2c3%2c20151207%2c18&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TNDV%2c99%2c%e5%9c%8b%2c8%2c20150722%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TNDV%2c97%2c%e9%87%8d%e5%9c%8b%2c3%2c20150708%2c16&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c90%2c%e8%a8%b4%2c6482%2c20020517%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>被告景岳生物科技</t>
-  </si>
-  <si>
-    <t>被告全國電子</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=ULDV%2c109%2c%e9%87%8d%e8%a8%b4%2c51%2c20231229%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>被告走著瞧</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPHM%2c101%2c%e4%be%b5%e4%b8%8a%e8%a8%b4%2c265%2c20121009%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=KSDM%2c89%2c%e6%98%93%2c1154%2c20010406%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>上訴人技嘉科技</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCV%2c105%2c%e6%b0%91%e5%b0%88%e4%b8%8a%2c40%2c20170426%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>上訴人中華電信</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPHV%2c103%2c%e5%bb%ba%e4%b8%8a%e6%9b%b4%ef%99%be%2c27%2c20200122%2c3&amp;ot=in</t>
-  </si>
-  <si>
-    <t>上訴人建準電機工業</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=IPCA%2c105%2c%e8%a1%8c%e5%b0%88%e8%a8%b4%2c48%2c20170918%2c4&amp;ot=in</t>
-  </si>
-  <si>
-    <t>上訴人中國航運</t>
-  </si>
-  <si>
-    <t>上訴人雄獅旅行社</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=SLDV%2c110%2c%e5%b0%8f%e4%b8%8a%2c10%2c20210125%2c2&amp;ot=in</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>search term url</t>
+  </si>
+  <si>
+    <t>被告潤泰全球</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c107%2c%e8%a8%b4%2c4619%2c20200723%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=PCDV%2c107%2c%e8%a8%b4%2c2203%2c20190829%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=PCDV%2c107%2c%e8%a8%b4%2c1887%2c20181031%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=PCDV%2c107%2c%e8%a8%b4%2c2203%2c20180831%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=PCDV%2c107%2c%e8%a3%9c%2c1277%2c20180803%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c106%2c%e8%a8%b4%2c319%2c20180430%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c106%2c%e8%a8%b4%2c319%2c20180122%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c99%2c%e8%a8%b4%2c432%2c20150605%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c101%2c%e9%87%8d%e8%a8%b4%2c36%2c20140411%2c3&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c97%2c%e9%87%8d%e8%a8%b4%2c468%2c20120827%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPHV%2c100%2c%e4%b8%8a%e6%98%93%2c467%2c20120619%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c97%2c%e9%87%8d%e8%a8%b4%2c169%2c20110110%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c97%2c%e9%87%8d%e8%a8%b4%2c13%2c20101231%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c97%2c%e9%87%8d%e8%a8%b4%2c169%2c20101220%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c97%2c%e9%87%8d%e8%a8%b4%2c468%2c20091204%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c96%2c%e8%a8%b4%2c6685%2c20070919%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c96%2c%e8%a8%b4%2c6685%2c20070903%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c95%2c%e8%a8%b4%2c11012%2c20070131%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPDV%2c95%2c%e8%a8%b4%2c6125%2c20070122%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPSM%2c94%2c%e5%8f%b0%e4%b8%8a%2c5119%2c20050915&amp;ot=in</t>
+  </si>
+  <si>
+    <t>被告亞洲光學</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8b%9e%e8%a3%9c%2c484%2c20240805%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDM%2c110%2c%e5%96%ae%e8%81%b2%e6%b2%92%2c118%2c20210709%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c98%2c%e9%87%8d%e8%a8%b4%2c280%2c20100921%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=PCDV%2c97%2c%e9%87%8d%e8%a8%b4%2c550%2c20090122%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>被告上福全球科技</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c109%2c%e8%a8%b4%2c3751%2c20230424%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c102%2c%e5%8f%b8%e4%bb%96%2c44%2c20130516%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c96%2c%e5%8b%9e%e8%a8%b4%2c29%2c20080923%2c2&amp;ot=in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +171,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,199 +508,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC68CAD-4014-4D10-8AD3-CF576BF2E963}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/x.xlsx
+++ b/x.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://londonbusinessschool1000-my.sharepoint.com/personal/sunnyw_london_edu/Documents/courtcase/s3/runb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{0DE80259-CC16-4A54-A949-27FD42083D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4970E68-5AC8-43D6-ACEB-99597E0ACC4D}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{0DE80259-CC16-4A54-A949-27FD42083D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8353370F-15B4-46B5-8EA8-00B68F20395E}"/>
   <bookViews>
-    <workbookView xWindow="64680" yWindow="4740" windowWidth="14400" windowHeight="8175" xr2:uid="{5C52E421-8850-400F-B9D0-509788EC78DE}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8170" xr2:uid="{5C52E421-8850-400F-B9D0-509788EC78DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,99 +36,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
   <si>
     <t>search term url</t>
   </si>
   <si>
-    <t>被告潤泰全球</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c107%2c%e8%a8%b4%2c4619%2c20200723%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=PCDV%2c107%2c%e8%a8%b4%2c2203%2c20190829%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=PCDV%2c107%2c%e8%a8%b4%2c1887%2c20181031%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=PCDV%2c107%2c%e8%a8%b4%2c2203%2c20180831%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=PCDV%2c107%2c%e8%a3%9c%2c1277%2c20180803%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c106%2c%e8%a8%b4%2c319%2c20180430%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c106%2c%e8%a8%b4%2c319%2c20180122%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c99%2c%e8%a8%b4%2c432%2c20150605%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c101%2c%e9%87%8d%e8%a8%b4%2c36%2c20140411%2c3&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c97%2c%e9%87%8d%e8%a8%b4%2c468%2c20120827%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPHV%2c100%2c%e4%b8%8a%e6%98%93%2c467%2c20120619%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c97%2c%e9%87%8d%e8%a8%b4%2c169%2c20110110%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c97%2c%e9%87%8d%e8%a8%b4%2c13%2c20101231%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c97%2c%e9%87%8d%e8%a8%b4%2c169%2c20101220%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c97%2c%e9%87%8d%e8%a8%b4%2c468%2c20091204%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c96%2c%e8%a8%b4%2c6685%2c20070919%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c96%2c%e8%a8%b4%2c6685%2c20070903%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c95%2c%e8%a8%b4%2c11012%2c20070131%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPDV%2c95%2c%e8%a8%b4%2c6125%2c20070122%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TPSM%2c94%2c%e5%8f%b0%e4%b8%8a%2c5119%2c20050915&amp;ot=in</t>
-  </si>
-  <si>
-    <t>被告亞洲光學</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8b%9e%e8%a3%9c%2c484%2c20240805%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TCDM%2c110%2c%e5%96%ae%e8%81%b2%e6%b2%92%2c118%2c20210709%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TCDV%2c98%2c%e9%87%8d%e8%a8%b4%2c280%2c20100921%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=PCDV%2c97%2c%e9%87%8d%e8%a8%b4%2c550%2c20090122%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>被告上福全球科技</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TCDV%2c109%2c%e8%a8%b4%2c3751%2c20230424%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TCDV%2c102%2c%e5%8f%b8%e4%bb%96%2c44%2c20130516%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>data.aspx?ty=JD&amp;id=TCDV%2c96%2c%e5%8b%9e%e8%a8%b4%2c29%2c20080923%2c2&amp;ot=in</t>
+    <t>原告台灣積體電路製造</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TNDV%2c105%2c%e9%87%8d%e8%a8%b4%2c291%2c20180131%2c3&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TNDV%2c105%2c%e8%a3%9c%2c737%2c20161011%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>原告燦坤實業</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=KSBA%2c99%2c%e8%a8%b4%2c286%2c20100817%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>原告遠傳電信</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=PCDV%2c96%2c%e5%a9%9a%2c641%2c20070823%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>被告台灣積體電路製造</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=SLDV%2c108%2c%e8%a3%9c%2c1413%2c20191128%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>被告大同</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TNHM%2c106%2c%e4%b8%8a%e8%a8%b4%2c350%2c20170801%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>原告中國石油化學工業開發</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TNDA%2c109%2c%e7%b0%a1%2c99%2c20230331%2c5&amp;ot=in</t>
+  </si>
+  <si>
+    <t>被告技嘉科技</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=IPCV%2c105%2c%e6%b0%91%e5%b0%88%e8%a8%b4%2c34%2c20160721%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>原告揚博科技</t>
+  </si>
+  <si>
+    <t>上訴人耿鼎企業</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCBA%2c113%2c%e8%a8%b4%2c168%2c20241001%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPHM%2c113%2c%e9%87%91%e4%b8%8a%e8%a8%b4%2c16%2c20241001%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCHM%2c113%2c%e4%b8%8a%e8%a8%b4%2c796%2c20241001%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8736%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8735%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8725%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8720%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8719%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8717%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>上訴人台灣塑膠工業</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8645%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8646%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8638%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8632%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8631%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8630%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8624%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8627%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e4%bf%83%2c28693%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e4%bf%83%2c28683%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>上訴人日馳企業</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=PCDV%2c113%2c%e9%99%a4%2c509%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>上訴人江申工業</t>
+  </si>
+  <si>
+    <t>上訴人台灣大哥大</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=IPCM%2c105%2c%e9%87%8d%e9%99%84%e6%b0%91%e4%b8%8a%2c3%2c20180321%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>上訴人榮成紙業</t>
+  </si>
+  <si>
+    <t>被告中國石油化學工業開發</t>
+  </si>
+  <si>
+    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TNDV%2c99%2c%e5%9c%8b%2c8%2c20150722%2c1&amp;ot=in</t>
   </si>
 </sst>
 </file>
@@ -145,7 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,6 +234,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC68CAD-4014-4D10-8AD3-CF576BF2E963}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,205 +588,577 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B829" r:id="rId1" display="https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPHV%2c103%2c%e4%b8%8a%2c1493%2c20180321%2c1&amp;ot=in" xr:uid="{15AE69DF-E586-4B19-8C02-60A34D20222F}"/>
+    <hyperlink ref="B893" r:id="rId2" display="https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TNDV%2c97%2c%e9%87%8d%e5%9c%8b%2c3%2c20151207%2c18&amp;ot=in" xr:uid="{AEDC9D44-9EB3-4D11-8DB9-0293E43A5069}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/x.xlsx
+++ b/x.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://londonbusinessschool1000-my.sharepoint.com/personal/sunnyw_london_edu/Documents/courtcase/s3/runb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{0DE80259-CC16-4A54-A949-27FD42083D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8353370F-15B4-46B5-8EA8-00B68F20395E}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{0DE80259-CC16-4A54-A949-27FD42083D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23AC21F-5581-496E-AE1E-ED6C48C211B7}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8170" xr2:uid="{5C52E421-8850-400F-B9D0-509788EC78DE}"/>
+    <workbookView xWindow="240" yWindow="1110" windowWidth="18960" windowHeight="10890" xr2:uid="{5C52E421-8850-400F-B9D0-509788EC78DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,143 +44,143 @@
     <t>原告台灣積體電路製造</t>
   </si>
   <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TNDV%2c105%2c%e9%87%8d%e8%a8%b4%2c291%2c20180131%2c3&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TNDV%2c105%2c%e8%a3%9c%2c737%2c20161011%2c1&amp;ot=in</t>
-  </si>
-  <si>
     <t>原告燦坤實業</t>
   </si>
   <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=KSBA%2c99%2c%e8%a8%b4%2c286%2c20100817%2c1&amp;ot=in</t>
-  </si>
-  <si>
     <t>原告遠傳電信</t>
   </si>
   <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=PCDV%2c96%2c%e5%a9%9a%2c641%2c20070823%2c2&amp;ot=in</t>
-  </si>
-  <si>
     <t>被告台灣積體電路製造</t>
   </si>
   <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=SLDV%2c108%2c%e8%a3%9c%2c1413%2c20191128%2c1&amp;ot=in</t>
-  </si>
-  <si>
     <t>被告大同</t>
   </si>
   <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TNHM%2c106%2c%e4%b8%8a%e8%a8%b4%2c350%2c20170801%2c1&amp;ot=in</t>
-  </si>
-  <si>
     <t>原告中國石油化學工業開發</t>
   </si>
   <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TNDA%2c109%2c%e7%b0%a1%2c99%2c20230331%2c5&amp;ot=in</t>
-  </si>
-  <si>
     <t>被告技嘉科技</t>
   </si>
   <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=IPCV%2c105%2c%e6%b0%91%e5%b0%88%e8%a8%b4%2c34%2c20160721%2c2&amp;ot=in</t>
-  </si>
-  <si>
     <t>原告揚博科技</t>
   </si>
   <si>
     <t>上訴人耿鼎企業</t>
   </si>
   <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCBA%2c113%2c%e8%a8%b4%2c168%2c20241001%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPHM%2c113%2c%e9%87%91%e4%b8%8a%e8%a8%b4%2c16%2c20241001%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCHM%2c113%2c%e4%b8%8a%e8%a8%b4%2c796%2c20241001%2c2&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8736%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8735%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8725%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8720%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8719%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8717%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
     <t>上訴人台灣塑膠工業</t>
   </si>
   <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8645%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8646%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8638%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8632%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8631%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8630%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8624%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8627%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e4%bf%83%2c28693%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e4%bf%83%2c28683%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
     <t>上訴人日馳企業</t>
   </si>
   <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=PCDV%2c113%2c%e9%99%a4%2c509%2c20241001%2c1&amp;ot=in</t>
-  </si>
-  <si>
     <t>上訴人江申工業</t>
   </si>
   <si>
     <t>上訴人台灣大哥大</t>
   </si>
   <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=IPCM%2c105%2c%e9%87%8d%e9%99%84%e6%b0%91%e4%b8%8a%2c3%2c20180321%2c1&amp;ot=in</t>
-  </si>
-  <si>
     <t>上訴人榮成紙業</t>
   </si>
   <si>
     <t>被告中國石油化學工業開發</t>
   </si>
   <si>
-    <t>https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TNDV%2c99%2c%e5%9c%8b%2c8%2c20150722%2c1&amp;ot=in</t>
+    <t>data.aspx?ty=JD&amp;id=TNDV%2c105%2c%e9%87%8d%e8%a8%b4%2c291%2c20180131%2c3&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TNDV%2c105%2c%e8%a3%9c%2c737%2c20161011%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=KSBA%2c99%2c%e8%a8%b4%2c286%2c20100817%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=PCDV%2c96%2c%e5%a9%9a%2c641%2c20070823%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=SLDV%2c108%2c%e8%a3%9c%2c1413%2c20191128%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TNHM%2c106%2c%e4%b8%8a%e8%a8%b4%2c350%2c20170801%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TNDA%2c109%2c%e7%b0%a1%2c99%2c20230331%2c5&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=IPCV%2c105%2c%e6%b0%91%e5%b0%88%e8%a8%b4%2c34%2c20160721%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCBA%2c113%2c%e8%a8%b4%2c168%2c20241001%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TPHM%2c113%2c%e9%87%91%e4%b8%8a%e8%a8%b4%2c16%2c20241001%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCHM%2c113%2c%e4%b8%8a%e8%a8%b4%2c796%2c20241001%2c2&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8736%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8735%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8725%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8720%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8719%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8717%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8645%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8646%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8638%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8632%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8631%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8630%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8624%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e7%a5%a8%2c8627%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e4%bf%83%2c28693%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TCDV%2c113%2c%e5%8f%b8%e4%bf%83%2c28683%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=PCDV%2c113%2c%e9%99%a4%2c509%2c20241001%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=IPCM%2c105%2c%e9%87%8d%e9%99%84%e6%b0%91%e4%b8%8a%2c3%2c20180321%2c1&amp;ot=in</t>
+  </si>
+  <si>
+    <t>data.aspx?ty=JD&amp;id=TNDV%2c99%2c%e5%9c%8b%2c8%2c20150722%2c1&amp;ot=in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +191,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,14 +221,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -234,10 +245,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,11 +566,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC68CAD-4014-4D10-8AD3-CF576BF2E963}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B51" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -575,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -583,572 +593,572 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>45</v>
@@ -1158,6 +1168,7 @@
   <hyperlinks>
     <hyperlink ref="B829" r:id="rId1" display="https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TPHV%2c103%2c%e4%b8%8a%2c1493%2c20180321%2c1&amp;ot=in" xr:uid="{15AE69DF-E586-4B19-8C02-60A34D20222F}"/>
     <hyperlink ref="B893" r:id="rId2" display="https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=TNDV%2c97%2c%e9%87%8d%e5%9c%8b%2c3%2c20151207%2c18&amp;ot=in" xr:uid="{AEDC9D44-9EB3-4D11-8DB9-0293E43A5069}"/>
+    <hyperlink ref="B51" r:id="rId3" display="https://judgment.judicial.gov.tw/FJUD/data.aspx?ty=JD&amp;id=PCDV%2c113%2c%e9%99%a4%2c509%2c20241001%2c1&amp;ot=in" xr:uid="{8D5EFC71-3657-4923-BEED-B5DEF95022BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
